--- a/Document.xlsx
+++ b/Document.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
   <si>
     <t>Code</t>
   </si>
@@ -229,10 +229,13 @@
     <t>http://localhost:5000/user</t>
   </si>
   <si>
-    <t>searches for the user through email</t>
-  </si>
-  <si>
     <t>headers: {email:String}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: All the protected routes can be accessed by providing the "authorization" key with "Barrier token" as value. In value. Barrier String will be same but token can be obtained by loging in.. Token is returned when you log in. </t>
+  </si>
+  <si>
+    <t>Protected: searches for the user through email</t>
   </si>
 </sst>
 </file>
@@ -629,7 +632,7 @@
   <dimension ref="B1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -943,10 +946,10 @@
         <v>10</v>
       </c>
       <c r="D23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" t="s">
         <v>69</v>
-      </c>
-      <c r="E23" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -960,7 +963,9 @@
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="6"/>
+      <c r="B26" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>

--- a/Document.xlsx
+++ b/Document.xlsx
@@ -339,7 +339,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -347,6 +347,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -631,16 +637,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="37.33203125" customWidth="1"/>
+    <col min="2" max="2" width="42.5546875" customWidth="1"/>
     <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="35.21875" customWidth="1"/>
     <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -670,7 +676,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
@@ -680,14 +686,14 @@
       <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
@@ -697,7 +703,7 @@
       <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -714,7 +720,7 @@
       <c r="D5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F5" t="s">
@@ -727,7 +733,7 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -740,11 +746,11 @@
       <c r="D7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>29</v>
       </c>
@@ -754,7 +760,7 @@
       <c r="D8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F8" t="s">
@@ -771,7 +777,7 @@
       <c r="D9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="7" t="s">
         <v>35</v>
       </c>
       <c r="F9" t="s">
@@ -788,7 +794,7 @@
       <c r="D10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -802,6 +808,7 @@
       <c r="D11" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
@@ -813,6 +820,7 @@
       <c r="D12" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
@@ -824,6 +832,7 @@
       <c r="D13" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
@@ -835,6 +844,7 @@
       <c r="D14" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="E14" s="7"/>
       <c r="F14" t="s">
         <v>49</v>
       </c>
@@ -849,7 +859,7 @@
       <c r="D15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -859,7 +869,7 @@
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="8"/>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -872,8 +882,9 @@
       <c r="D17" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
         <v>56</v>
       </c>
@@ -883,7 +894,7 @@
       <c r="D18" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="7" t="s">
         <v>58</v>
       </c>
     </row>
@@ -897,11 +908,11 @@
       <c r="D19" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
         <v>62</v>
       </c>
@@ -911,11 +922,11 @@
       <c r="D20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
         <v>65</v>
       </c>
@@ -925,7 +936,7 @@
       <c r="D21" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="7" t="s">
         <v>64</v>
       </c>
     </row>
@@ -935,7 +946,7 @@
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="8"/>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -948,7 +959,7 @@
       <c r="D23" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -956,11 +967,13 @@
       <c r="B24" s="6"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="6"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
@@ -968,36 +981,43 @@
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="6"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
+      <c r="E27" s="7"/>
     </row>
     <row r="28" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
+      <c r="E28" s="7"/>
     </row>
     <row r="29" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
+      <c r="E30" s="7"/>
     </row>
     <row r="31" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
+      <c r="E31" s="7"/>
     </row>
     <row r="32" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
+      <c r="E32" s="7"/>
     </row>
     <row r="33" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B33" s="3"/>
@@ -1084,7 +1104,7 @@
   <dimension ref="B1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
